--- a/pabi_account_report/xlsx_template/xlsx_report_preprint_receipt.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_preprint_receipt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Preprint Receipt" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Fiscal Year From</t>
   </si>
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -200,6 +200,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,50 +584,74 @@
       </c>
       <c r="D5" s="8"/>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+    </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>21</v>
       </c>
     </row>

--- a/pabi_account_report/xlsx_template/xlsx_report_preprint_receipt.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_preprint_receipt.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Fiscal Year From</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Sytem Origin</t>
-  </si>
-  <si>
-    <t>Currency</t>
   </si>
   <si>
     <t>Create by</t>
@@ -526,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,22 +543,22 @@
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -571,7 +568,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -581,7 +578,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -591,7 +588,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -599,7 +596,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -607,7 +604,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -615,7 +612,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -638,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>14</v>
@@ -656,16 +653,13 @@
         <v>18</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
